--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\django-black-dashboard\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA12F22-0F6B-4D18-A2FB-C03CBC7A2C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="invoices_df" sheetId="1" r:id="rId1"/>
@@ -23,12 +17,12 @@
     <sheet name="CRM_lead" sheetId="8" r:id="rId8"/>
     <sheet name="employee_data" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="340">
   <si>
     <t>id_invoice</t>
   </si>
@@ -159,12 +153,18 @@
     <t>MISSING_USER</t>
   </si>
   <si>
+    <t>OdooBot</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 'Azure Interior'</t>
   </si>
   <si>
     <t xml:space="preserve"> 'Deco Addict'</t>
   </si>
   <si>
+    <t>MISSING_NAME</t>
+  </si>
+  <si>
     <t>invoice_id</t>
   </si>
   <si>
@@ -186,6 +186,24 @@
     <t>AAAA</t>
   </si>
   <si>
+    <t>[FURN_6741] Large Meeting Table
+Une table de salle de conférence</t>
+  </si>
+  <si>
+    <t>[FURN_8220] Four Person Desk
+Poste de travail moderne pour quatre personnes</t>
+  </si>
+  <si>
+    <t>[FURN_8999] Three-Seat Sofa
+Canapé trois places avec chaise longue de couleur gris acier</t>
+  </si>
+  <si>
+    <t>[FURN_7777] Office Chair</t>
+  </si>
+  <si>
+    <t>[FURN_9999] Office Design Software</t>
+  </si>
+  <si>
     <t>id_product</t>
   </si>
   <si>
@@ -1027,140 +1045,16 @@
   </si>
   <si>
     <t>Administration</t>
-  </si>
-  <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>Client X'</t>
-  </si>
-  <si>
-    <t>'Client X'</t>
-  </si>
-  <si>
-    <t>FAC/2024/0011</t>
-  </si>
-  <si>
-    <t>FACTU/2024/05/0011</t>
-  </si>
-  <si>
-    <t>BNK1/2024/01/0077</t>
-  </si>
-  <si>
-    <t>BNK1/2024/01/0066</t>
-  </si>
-  <si>
-    <t>BNK1/2024/01/0055</t>
-  </si>
-  <si>
-    <t>SpaceX'</t>
-  </si>
-  <si>
-    <t>tesla'</t>
-  </si>
-  <si>
-    <t>black'</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>desk</t>
-  </si>
-  <si>
-    <t>chaise</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>[FURN</t>
-  </si>
-  <si>
-    <t>[FURNsa</t>
-  </si>
-  <si>
-    <t>[FURN_9999</t>
-  </si>
-  <si>
-    <t>[FURN_6741]</t>
-  </si>
-  <si>
-    <r>
-      <t>[FURN_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">8220] </t>
-    </r>
-  </si>
-  <si>
-    <t>SVC/2024/00001</t>
-  </si>
-  <si>
-    <t>Sophia Williams</t>
-  </si>
-  <si>
-    <t>PCH/2024/00003</t>
-  </si>
-  <si>
-    <t>Daniel Garcia</t>
-  </si>
-  <si>
-    <t>GAS/2024/00009</t>
-  </si>
-  <si>
-    <t>Emily Jones</t>
-  </si>
-  <si>
-    <t>FAC/2024/00010</t>
-  </si>
-  <si>
-    <t>Marc Dem 'Deco Ado</t>
-  </si>
-  <si>
-    <t>ORD/2024/00003</t>
-  </si>
-  <si>
-    <t>Chris Miller</t>
-  </si>
-  <si>
-    <t>SVC/2024/00002</t>
-  </si>
-  <si>
-    <t>Olivia Brown</t>
-  </si>
-  <si>
-    <t>PCH/2024/00004</t>
-  </si>
-  <si>
-    <t>GAS/2024/00011</t>
-  </si>
-  <si>
-    <t>FAC/2024/00012</t>
-  </si>
-  <si>
-    <t>ORD/2024/00004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,12 +1070,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1191,7 +1079,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1214,74 +1102,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1319,7 +1162,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1353,7 +1196,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1388,10 +1230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1564,24 +1405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="70.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="57.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1639,10 +1470,10 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1671,10 +1502,10 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1696,17 +1527,14 @@
       <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4" t="s">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1728,17 +1556,14 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5" t="s">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1767,10 +1592,10 @@
         <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1799,10 +1624,10 @@
         <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1828,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>334</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1860,13 +1685,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1892,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1924,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1956,13 +1781,13 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1988,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2020,13 +1845,13 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2048,206 +1873,11 @@
       <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15" t="s">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45420</v>
-      </c>
-      <c r="E16">
-        <v>4581</v>
-      </c>
-      <c r="F16">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>333</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45047</v>
-      </c>
-      <c r="E17">
-        <v>9876</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>337</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45292</v>
-      </c>
-      <c r="E18">
-        <v>9632</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D19" s="2">
-        <v>44562</v>
-      </c>
-      <c r="E19">
-        <v>660</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>334</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44713</v>
-      </c>
-      <c r="E20">
-        <v>1500</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>334</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>112</v>
-      </c>
-      <c r="C21" t="s">
-        <v>341</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45078</v>
-      </c>
-      <c r="E21">
-        <v>740</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>334</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>344</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2256,40 +1886,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="46.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2300,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>320</v>
@@ -2312,7 +1936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2323,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -2335,7 +1959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2346,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>2350</v>
@@ -2358,7 +1982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2369,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -2381,7 +2005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2392,7 +2016,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>2350</v>
@@ -2404,7 +2028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2415,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>2350</v>
@@ -2427,7 +2051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2438,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -2450,7 +2074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2461,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -2473,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2484,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>235</v>
@@ -2496,7 +2120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2507,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -2519,7 +2143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2530,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>2350</v>
@@ -2540,236 +2164,6 @@
       </c>
       <c r="G12">
         <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" t="s">
-        <v>347</v>
-      </c>
-      <c r="E13">
-        <v>1500</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D14" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14">
-        <v>2350</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" t="s">
-        <v>346</v>
-      </c>
-      <c r="E15">
-        <v>2350</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16" t="s">
-        <v>349</v>
-      </c>
-      <c r="E16">
-        <v>1500</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D17" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17">
-        <v>55</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18">
-        <v>235</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D19" t="s">
-        <v>347</v>
-      </c>
-      <c r="E19">
-        <v>4000</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20">
-        <v>2350</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E21">
-        <v>1500</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D22" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22">
-        <v>2350</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2778,42 +2172,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -2834,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2845,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>320</v>
@@ -2872,10 +2255,10 @@
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2886,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -2913,10 +2296,10 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2927,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>2350</v>
@@ -2954,10 +2337,10 @@
         <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2968,7 +2351,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -2992,10 +2375,10 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3006,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>2350</v>
@@ -3030,10 +2413,10 @@
         <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3044,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>2350</v>
@@ -3068,10 +2451,10 @@
         <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3082,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -3106,10 +2489,10 @@
         <v>42</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3120,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -3147,10 +2530,10 @@
         <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3161,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>235</v>
@@ -3188,10 +2571,10 @@
         <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3202,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -3229,10 +2612,10 @@
         <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3243,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>2350</v>
@@ -3270,468 +2653,46 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" t="s">
-        <v>347</v>
-      </c>
-      <c r="E13">
-        <v>320</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45422</v>
-      </c>
-      <c r="I13">
-        <v>368</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="4">
-        <v>25</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="M13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D14" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14">
-        <v>4000</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>45420</v>
-      </c>
-      <c r="I14">
-        <v>36512.5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="4">
-        <v>18</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="M14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" t="s">
-        <v>346</v>
-      </c>
-      <c r="E15">
-        <v>2350</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45420</v>
-      </c>
-      <c r="I15">
-        <v>36512.5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="4">
-        <v>14</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="M15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16" t="s">
-        <v>349</v>
-      </c>
-      <c r="E16">
-        <v>1500</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45422</v>
-      </c>
-      <c r="I16">
-        <v>22137.5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="4">
-        <v>6</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D17" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17">
-        <v>2350</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45420</v>
-      </c>
-      <c r="I17">
-        <v>22137.5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="M17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18">
-        <v>2350</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>45420</v>
-      </c>
-      <c r="I18">
-        <v>48012.5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="4">
-        <v>30</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="M18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D19" t="s">
-        <v>347</v>
-      </c>
-      <c r="E19">
-        <v>1500</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>45422</v>
-      </c>
-      <c r="I19">
-        <v>48012.5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="4">
-        <v>18</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="M19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20">
-        <v>55</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>45420</v>
-      </c>
-      <c r="I20">
-        <v>1414.5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="4">
-        <v>14</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="M20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D21" t="s">
-        <v>346</v>
-      </c>
-      <c r="E21">
-        <v>235</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>45420</v>
-      </c>
-      <c r="I21">
-        <v>1414.5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="4">
-        <v>6</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="M21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D22" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22">
-        <v>4000</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4">
-        <v>6</v>
-      </c>
-      <c r="H22" s="2">
-        <v>45422</v>
-      </c>
-      <c r="I22">
-        <v>36512.5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="4">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="M22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3739,7 +2700,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>295</v>
@@ -3748,16 +2709,16 @@
         <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3765,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>140</v>
@@ -3774,16 +2735,16 @@
         <v>120.5</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3791,7 +2752,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>33</v>
@@ -3800,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3817,7 +2778,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>85</v>
@@ -3826,16 +2787,16 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3843,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>147</v>
@@ -3852,16 +2813,16 @@
         <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3869,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>750</v>
@@ -3878,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3895,7 +2856,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>150</v>
@@ -3904,16 +2865,16 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3921,7 +2882,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>450</v>
@@ -3930,16 +2891,16 @@
         <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3947,7 +2908,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>2100</v>
@@ -3956,16 +2917,16 @@
         <v>2010</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3973,7 +2934,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>110.5</v>
@@ -3982,16 +2943,16 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3999,7 +2960,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -4008,16 +2969,16 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4025,7 +2986,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>1950</v>
@@ -4034,16 +2995,16 @@
         <v>1700</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4051,7 +3012,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>2350</v>
@@ -4060,16 +3021,16 @@
         <v>2500</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4077,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -4086,16 +3047,16 @@
         <v>400</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4103,7 +3064,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>885</v>
@@ -4112,16 +3073,16 @@
         <v>876</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4129,7 +3090,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>320</v>
@@ -4138,16 +3099,16 @@
         <v>800</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4155,7 +3116,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D18">
         <v>1799</v>
@@ -4164,16 +3125,16 @@
         <v>1299</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4181,7 +3142,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>4000</v>
@@ -4190,16 +3151,16 @@
         <v>4500</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4207,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -4216,16 +3177,16 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4233,7 +3194,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D21">
         <v>120.5</v>
@@ -4242,16 +3203,16 @@
         <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4259,7 +3220,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <v>280</v>
@@ -4268,16 +3229,16 @@
         <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4285,7 +3246,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -4294,16 +3255,16 @@
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4311,7 +3272,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <v>47</v>
@@ -4320,16 +3281,16 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4337,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -4346,16 +3307,16 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4363,7 +3324,7 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>15.8</v>
@@ -4372,16 +3333,16 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4389,7 +3350,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>1500</v>
@@ -4398,16 +3359,16 @@
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4415,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>38.25</v>
@@ -4424,16 +3385,16 @@
         <v>25.5</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4441,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <v>30.75</v>
@@ -4450,10 +3411,10 @@
         <v>20.5</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4465,51 +3426,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4517,31 +3470,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4549,31 +3502,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4581,31 +3534,31 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4613,31 +3566,31 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4645,31 +3598,31 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4677,31 +3630,31 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4709,31 +3662,31 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4741,28 +3694,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4771,58 +3724,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4830,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4851,25 +3804,25 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" t="s">
         <v>117</v>
       </c>
-      <c r="L2" t="s">
-        <v>110</v>
-      </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4877,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4898,25 +3851,25 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4924,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4945,25 +3898,25 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4971,7 +3924,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -4992,22 +3945,22 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5016,76 +3969,76 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5093,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5108,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -5144,13 +4097,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5158,7 +4111,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -5173,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -5209,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -5221,58 +4174,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5286,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5304,19 +4254,19 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5324,13 +4274,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5348,19 +4298,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5368,43 +4318,43 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M4" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5412,43 +4362,43 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M5" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5456,43 +4406,43 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5500,43 +4450,43 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5544,43 +4494,43 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L8" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5588,43 +4538,43 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L9" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M9" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5632,13 +4582,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5656,19 +4606,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L10" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5676,13 +4626,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5700,19 +4650,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L11" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M11" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5720,13 +4670,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5744,19 +4694,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L12" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M12" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5764,13 +4714,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5788,19 +4738,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L13" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M13" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5808,13 +4758,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5832,19 +4782,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L14" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M14" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5852,13 +4802,13 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5876,19 +4826,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5896,13 +4846,13 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5920,19 +4870,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5940,13 +4890,13 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5964,19 +4914,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5984,13 +4934,13 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6008,19 +4958,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6028,13 +4978,13 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -6052,19 +5002,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M19" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6072,13 +5022,13 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6096,19 +5046,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6116,13 +5066,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6140,19 +5090,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6160,13 +5110,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -6184,19 +5134,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6204,13 +5154,13 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6228,19 +5178,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M23" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6248,13 +5198,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -6272,19 +5222,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6292,13 +5242,13 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -6316,19 +5266,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M25" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6336,13 +5286,13 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6360,19 +5310,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M26" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6380,13 +5330,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6404,19 +5354,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6424,13 +5374,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6448,19 +5398,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6468,13 +5418,13 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -6492,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6512,13 +5462,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -6536,19 +5486,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M30" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6556,43 +5506,43 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H31" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6600,43 +5550,43 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6644,43 +5594,43 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6688,43 +5638,43 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H34" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I34" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6732,43 +5682,43 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G35" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6776,43 +5726,43 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G36" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H36" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M36" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="N36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6820,13 +5770,13 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6844,19 +5794,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6864,13 +5814,13 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6888,19 +5838,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M38" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6908,13 +5858,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6932,19 +5882,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L39" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6958,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6976,19 +5926,19 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7002,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -7020,19 +5970,19 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M41" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7046,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -7064,19 +6014,19 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L42" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M42" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7090,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -7108,19 +6058,19 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L43" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M43" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7134,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -7152,19 +6102,19 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M44" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7172,43 +6122,43 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H45" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M45" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7216,37 +6166,37 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F46" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L46" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M46" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
@@ -7258,46 +6208,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7305,25 +6246,25 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7331,25 +6272,25 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7357,25 +6298,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7383,25 +6324,25 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7409,25 +6350,25 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7435,25 +6376,25 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7461,25 +6402,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7487,25 +6428,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7513,25 +6454,25 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7539,25 +6480,25 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7568,22 +6509,22 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7594,22 +6535,22 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7617,25 +6558,25 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7643,25 +6584,25 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7669,25 +6610,25 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7695,25 +6636,25 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7721,25 +6662,25 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7747,25 +6688,25 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7773,25 +6714,25 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7799,22 +6740,22 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\django-black-dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E062928-816A-4B2E-B666-E6D89616ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invoices_df" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="CRM_lead" sheetId="8" r:id="rId8"/>
     <sheet name="employee_data" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="370">
   <si>
     <t>id_invoice</t>
   </si>
@@ -153,18 +159,12 @@
     <t>MISSING_USER</t>
   </si>
   <si>
-    <t>OdooBot</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'Azure Interior'</t>
   </si>
   <si>
     <t xml:space="preserve"> 'Deco Addict'</t>
   </si>
   <si>
-    <t>MISSING_NAME</t>
-  </si>
-  <si>
     <t>invoice_id</t>
   </si>
   <si>
@@ -186,24 +186,6 @@
     <t>AAAA</t>
   </si>
   <si>
-    <t>[FURN_6741] Large Meeting Table
-Une table de salle de conférence</t>
-  </si>
-  <si>
-    <t>[FURN_8220] Four Person Desk
-Poste de travail moderne pour quatre personnes</t>
-  </si>
-  <si>
-    <t>[FURN_8999] Three-Seat Sofa
-Canapé trois places avec chaise longue de couleur gris acier</t>
-  </si>
-  <si>
-    <t>[FURN_7777] Office Chair</t>
-  </si>
-  <si>
-    <t>[FURN_9999] Office Design Software</t>
-  </si>
-  <si>
     <t>id_product</t>
   </si>
   <si>
@@ -1045,16 +1027,140 @@
   </si>
   <si>
     <t>Administration</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>Client X'</t>
+  </si>
+  <si>
+    <t>'Client X'</t>
+  </si>
+  <si>
+    <t>FAC/2024/0011</t>
+  </si>
+  <si>
+    <t>FACTU/2024/05/0011</t>
+  </si>
+  <si>
+    <t>BNK1/2024/01/0077</t>
+  </si>
+  <si>
+    <t>BNK1/2024/01/0066</t>
+  </si>
+  <si>
+    <t>BNK1/2024/01/0055</t>
+  </si>
+  <si>
+    <t>SpaceX'</t>
+  </si>
+  <si>
+    <t>tesla'</t>
+  </si>
+  <si>
+    <t>black'</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>chaise</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>[FURN</t>
+  </si>
+  <si>
+    <t>[FURNsa</t>
+  </si>
+  <si>
+    <t>[FURN_9999</t>
+  </si>
+  <si>
+    <t>[FURN_6741]</t>
+  </si>
+  <si>
+    <r>
+      <t>[FURN_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8220] </t>
+    </r>
+  </si>
+  <si>
+    <t>SVC/2024/00001</t>
+  </si>
+  <si>
+    <t>Sophia Williams</t>
+  </si>
+  <si>
+    <t>PCH/2024/00003</t>
+  </si>
+  <si>
+    <t>Daniel Garcia</t>
+  </si>
+  <si>
+    <t>GAS/2024/00009</t>
+  </si>
+  <si>
+    <t>Emily Jones</t>
+  </si>
+  <si>
+    <t>FAC/2024/00010</t>
+  </si>
+  <si>
+    <t>Marc Dem 'Deco Ado</t>
+  </si>
+  <si>
+    <t>ORD/2024/00003</t>
+  </si>
+  <si>
+    <t>Chris Miller</t>
+  </si>
+  <si>
+    <t>SVC/2024/00002</t>
+  </si>
+  <si>
+    <t>Olivia Brown</t>
+  </si>
+  <si>
+    <t>PCH/2024/00004</t>
+  </si>
+  <si>
+    <t>GAS/2024/00011</t>
+  </si>
+  <si>
+    <t>FAC/2024/00012</t>
+  </si>
+  <si>
+    <t>ORD/2024/00004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,6 +1176,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1079,7 +1191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1102,29 +1214,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1162,7 +1333,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1196,6 +1367,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1230,9 +1402,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1405,14 +1578,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="70.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="57.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1470,10 +1653,10 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1502,10 +1685,10 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1527,14 +1710,17 @@
       <c r="G4" t="s">
         <v>28</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1556,14 +1742,17 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1592,10 +1781,10 @@
         <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1624,10 +1813,10 @@
         <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1653,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>334</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1685,13 +1874,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1717,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1749,13 +1938,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
+        <v>334</v>
+      </c>
+      <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1781,13 +1970,13 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
+        <v>334</v>
+      </c>
+      <c r="J12" t="s">
         <v>43</v>
       </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1813,13 +2002,13 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1845,13 +2034,13 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
+        <v>334</v>
+      </c>
+      <c r="J14" t="s">
         <v>43</v>
       </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1873,11 +2062,846 @@
       <c r="G15" t="s">
         <v>39</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E16">
+        <v>4581</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>333</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E17">
+        <v>9876</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E18">
+        <v>9632</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E19">
+        <v>660</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44713</v>
+      </c>
+      <c r="E20">
+        <v>1500</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>334</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E21">
+        <v>740</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>334</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45447</v>
+      </c>
+      <c r="E22">
+        <v>368</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45422</v>
+      </c>
+      <c r="E23">
+        <v>36512.5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E24">
+        <v>22137.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>333</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E25">
+        <v>48012.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>333</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E26">
+        <v>1414.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E27">
+        <v>36512.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E28">
+        <v>96.67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>334</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E29">
+        <v>750</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>334</v>
+      </c>
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E30">
+        <v>102.78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>334</v>
+      </c>
+      <c r="J30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E31">
+        <v>2000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>334</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E32">
+        <v>650</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>334</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E33">
+        <v>32.58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>334</v>
+      </c>
+      <c r="J33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E34">
+        <v>1275</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>334</v>
+      </c>
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43360</v>
+      </c>
+      <c r="E35">
+        <v>622.27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>333</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45420</v>
+      </c>
+      <c r="E36">
+        <v>4581</v>
+      </c>
+      <c r="F36">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>333</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45047</v>
+      </c>
+      <c r="E37">
+        <v>9876</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45292</v>
+      </c>
+      <c r="E38">
+        <v>9632</v>
+      </c>
+      <c r="F38">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E39">
+        <v>660</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44713</v>
+      </c>
+      <c r="E40">
+        <v>1500</v>
+      </c>
+      <c r="F40">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E41">
+        <v>740</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>334</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -1886,34 +2910,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1924,7 +2954,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>320</v>
@@ -1936,7 +2966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1947,7 +2977,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -1959,7 +2989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1970,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="E4">
         <v>2350</v>
@@ -1982,7 +3012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1993,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>347</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -2005,7 +3035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2016,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="E6">
         <v>2350</v>
@@ -2028,9 +3058,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2039,7 +3069,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="E7">
         <v>2350</v>
@@ -2051,7 +3081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2062,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -2074,7 +3104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2085,7 +3115,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>350</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -2097,7 +3127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2108,7 +3138,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>351</v>
       </c>
       <c r="E10">
         <v>235</v>
@@ -2120,7 +3150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2131,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -2143,7 +3173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2154,7 +3184,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="E12">
         <v>2350</v>
@@ -2164,6 +3194,972 @@
       </c>
       <c r="G12">
         <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13">
+        <v>1500</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14">
+        <v>2350</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15">
+        <v>2350</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16">
+        <v>1500</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18">
+        <v>235</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19">
+        <v>4000</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20">
+        <v>2350</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21">
+        <v>1500</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22">
+        <v>2350</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24">
+        <v>235</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25">
+        <v>4000</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>353</v>
+      </c>
+      <c r="E26">
+        <v>2350</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27">
+        <v>1500</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4">
+        <v>21</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28">
+        <v>2350</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D29" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29">
+        <v>2350</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4">
+        <v>23</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30">
+        <v>1500</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E31">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32">
+        <v>235</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33">
+        <v>4000</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34">
+        <v>2350</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4">
+        <v>20</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35">
+        <v>1500</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4">
+        <v>21</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E36">
+        <v>2350</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D37" t="s">
+        <v>346</v>
+      </c>
+      <c r="E37">
+        <v>2350</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38">
+        <v>1500</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>350</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40">
+        <v>235</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41">
+        <v>4000</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>353</v>
+      </c>
+      <c r="E42">
+        <v>2350</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4">
+        <v>20</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D43" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43">
+        <v>1500</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4">
+        <v>21</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" t="s">
+        <v>348</v>
+      </c>
+      <c r="E44">
+        <v>2350</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45" s="4">
+        <v>22</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45">
+        <v>2350</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4">
+        <v>23</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D46" t="s">
+        <v>349</v>
+      </c>
+      <c r="E46">
+        <v>1500</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E47">
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E48">
+        <v>235</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>352</v>
+      </c>
+      <c r="E49">
+        <v>4000</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>353</v>
+      </c>
+      <c r="E50">
+        <v>2350</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>11</v>
+      </c>
+      <c r="B51" s="4">
+        <v>20</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D51" t="s">
+        <v>347</v>
+      </c>
+      <c r="E51">
+        <v>1500</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4">
+        <v>21</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" t="s">
+        <v>348</v>
+      </c>
+      <c r="E52">
+        <v>2350</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>13</v>
+      </c>
+      <c r="B53" s="4">
+        <v>22</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" t="s">
+        <v>346</v>
+      </c>
+      <c r="E53">
+        <v>2350</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>14</v>
+      </c>
+      <c r="B54" s="4">
+        <v>23</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" t="s">
+        <v>349</v>
+      </c>
+      <c r="E54">
+        <v>1500</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2172,31 +4168,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -2217,7 +4224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2228,7 +4235,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>320</v>
@@ -2255,10 +4262,10 @@
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2269,7 +4276,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="E3">
         <v>4000</v>
@@ -2296,10 +4303,10 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2310,7 +4317,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="E4">
         <v>2350</v>
@@ -2337,10 +4344,10 @@
         <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2351,7 +4358,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>347</v>
       </c>
       <c r="E5">
         <v>1500</v>
@@ -2375,10 +4382,10 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2389,7 +4396,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="E6">
         <v>2350</v>
@@ -2413,10 +4420,10 @@
         <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2427,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="E7">
         <v>2350</v>
@@ -2451,10 +4458,10 @@
         <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2465,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="E8">
         <v>1500</v>
@@ -2489,10 +4496,10 @@
         <v>42</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2503,7 +4510,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>350</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -2530,10 +4537,10 @@
         <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2544,7 +4551,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>351</v>
       </c>
       <c r="E10">
         <v>235</v>
@@ -2571,10 +4578,10 @@
         <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2585,7 +4592,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -2612,10 +4619,10 @@
         <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2626,7 +4633,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="E12">
         <v>2350</v>
@@ -2653,46 +4660,468 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13">
+        <v>320</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I13">
+        <v>368</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="4">
+        <v>25</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M13" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14">
+        <v>4000</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I14">
+        <v>36512.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="4">
+        <v>18</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15">
+        <v>2350</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I15">
+        <v>36512.5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="4">
+        <v>14</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16">
+        <v>1500</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I16">
+        <v>22137.5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="4">
+        <v>6</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17">
+        <v>2350</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I17">
+        <v>22137.5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18">
+        <v>2350</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I18">
+        <v>48012.5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="4">
+        <v>30</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19">
+        <v>1500</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I19">
+        <v>48012.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="4">
+        <v>18</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I20">
+        <v>1414.5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="4">
+        <v>14</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21">
+        <v>235</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45420</v>
+      </c>
+      <c r="I21">
+        <v>1414.5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22">
+        <v>4000</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I22">
+        <v>36512.5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2700,7 +5129,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>295</v>
@@ -2709,16 +5138,16 @@
         <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2726,7 +5155,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>140</v>
@@ -2735,16 +5164,16 @@
         <v>120.5</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2752,7 +5181,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>33</v>
@@ -2761,16 +5190,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2778,7 +5207,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>85</v>
@@ -2787,16 +5216,16 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2804,7 +5233,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>147</v>
@@ -2813,16 +5242,16 @@
         <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2830,7 +5259,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>750</v>
@@ -2839,16 +5268,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2856,7 +5285,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>150</v>
@@ -2865,16 +5294,16 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2882,7 +5311,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>450</v>
@@ -2891,16 +5320,16 @@
         <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2908,7 +5337,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>2100</v>
@@ -2917,16 +5346,16 @@
         <v>2010</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2934,7 +5363,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>110.5</v>
@@ -2943,16 +5372,16 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2960,7 +5389,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -2969,16 +5398,16 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2986,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>1950</v>
@@ -2995,16 +5424,16 @@
         <v>1700</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3012,7 +5441,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>2350</v>
@@ -3021,16 +5450,16 @@
         <v>2500</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3038,7 +5467,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -3047,16 +5476,16 @@
         <v>400</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3064,7 +5493,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16">
         <v>885</v>
@@ -3073,16 +5502,16 @@
         <v>876</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3090,7 +5519,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>320</v>
@@ -3099,16 +5528,16 @@
         <v>800</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3116,7 +5545,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>1799</v>
@@ -3125,16 +5554,16 @@
         <v>1299</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3142,7 +5571,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D19">
         <v>4000</v>
@@ -3151,16 +5580,16 @@
         <v>4500</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3168,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -3177,16 +5606,16 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3194,7 +5623,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>120.5</v>
@@ -3203,16 +5632,16 @@
         <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3220,7 +5649,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>280</v>
@@ -3229,16 +5658,16 @@
         <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3246,7 +5675,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>40</v>
@@ -3255,16 +5684,16 @@
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3272,7 +5701,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D24">
         <v>47</v>
@@ -3281,16 +5710,16 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3298,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -3307,16 +5736,16 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3324,7 +5753,7 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>15.8</v>
@@ -3333,16 +5762,16 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3350,7 +5779,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>1500</v>
@@ -3359,16 +5788,16 @@
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3376,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>38.25</v>
@@ -3385,16 +5814,16 @@
         <v>25.5</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3402,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>30.75</v>
@@ -3411,10 +5840,10 @@
         <v>20.5</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3426,75 +5855,83 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3502,31 +5939,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
         <v>109</v>
       </c>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" t="s">
-        <v>116</v>
-      </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3534,31 +5971,31 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
         <v>110</v>
       </c>
-      <c r="G4" t="s">
-        <v>117</v>
-      </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3566,31 +6003,31 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3598,31 +6035,31 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3630,31 +6067,31 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3662,31 +6099,31 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3694,28 +6131,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3724,58 +6161,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3783,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3804,25 +6241,25 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3830,7 +6267,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3851,25 +6288,25 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3877,7 +6314,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3898,25 +6335,25 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3924,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3945,22 +6382,22 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3969,105 +6406,105 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="I2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" t="s">
         <v>144</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -4097,13 +6534,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4111,7 +6548,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -4126,13 +6563,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -4162,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -4174,55 +6611,58 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4236,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4254,19 +6694,19 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4274,13 +6714,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4298,19 +6738,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4318,43 +6758,43 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4362,43 +6802,43 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4406,43 +6846,43 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4450,43 +6890,43 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
         <v>164</v>
       </c>
-      <c r="E7" t="s">
-        <v>171</v>
-      </c>
       <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" t="s">
         <v>182</v>
       </c>
-      <c r="G7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" t="s">
-        <v>189</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" t="s">
         <v>241</v>
       </c>
-      <c r="M7" t="s">
-        <v>248</v>
-      </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4494,43 +6934,43 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4538,43 +6978,43 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" t="s">
         <v>184</v>
       </c>
-      <c r="H9" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" t="s">
-        <v>191</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M9" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4582,13 +7022,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4606,19 +7046,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4626,13 +7066,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4650,19 +7090,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4670,13 +7110,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4694,19 +7134,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4714,13 +7154,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4738,19 +7178,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4758,13 +7198,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
         <v>160</v>
       </c>
-      <c r="D14" t="s">
-        <v>167</v>
-      </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4782,19 +7222,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L14" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M14" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4802,13 +7242,13 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4826,19 +7266,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4846,13 +7286,13 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4870,19 +7310,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4890,13 +7330,13 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4914,19 +7354,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4934,13 +7374,13 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4958,19 +7398,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4978,13 +7418,13 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5002,19 +7442,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M19" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5022,13 +7462,13 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5046,19 +7486,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5066,13 +7506,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5090,19 +7530,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M21" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5110,13 +7550,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5134,19 +7574,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5154,13 +7594,13 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -5178,19 +7618,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5198,13 +7638,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -5222,19 +7662,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5242,13 +7682,13 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5266,19 +7706,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M25" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5286,13 +7726,13 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -5310,19 +7750,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5330,13 +7770,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -5354,19 +7794,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5374,13 +7814,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -5398,19 +7838,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5418,13 +7858,13 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -5442,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M29" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5462,13 +7902,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -5486,19 +7926,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M30" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5506,43 +7946,43 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" t="s">
         <v>185</v>
       </c>
-      <c r="I31" t="s">
-        <v>192</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5550,43 +7990,43 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
         <v>175</v>
       </c>
-      <c r="F32" t="s">
-        <v>182</v>
-      </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5594,43 +8034,43 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" t="s">
         <v>182</v>
       </c>
-      <c r="G33" t="s">
-        <v>184</v>
-      </c>
-      <c r="H33" t="s">
-        <v>186</v>
-      </c>
-      <c r="I33" t="s">
-        <v>189</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5638,43 +8078,43 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5682,43 +8122,43 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" t="s">
         <v>182</v>
       </c>
-      <c r="G35" t="s">
-        <v>184</v>
-      </c>
-      <c r="H35" t="s">
-        <v>186</v>
-      </c>
-      <c r="I35" t="s">
-        <v>189</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5726,43 +8166,43 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" t="s">
         <v>179</v>
       </c>
-      <c r="F36" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>184</v>
       </c>
-      <c r="H36" t="s">
-        <v>186</v>
-      </c>
-      <c r="I36" t="s">
-        <v>191</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M36" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="N36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5770,13 +8210,13 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -5794,19 +8234,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5814,13 +8254,13 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -5838,19 +8278,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L38" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5858,13 +8298,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -5882,19 +8322,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5908,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -5926,19 +8366,19 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
+        <v>225</v>
+      </c>
+      <c r="L40" t="s">
         <v>232</v>
       </c>
-      <c r="L40" t="s">
-        <v>239</v>
-      </c>
       <c r="M40" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5952,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -5970,19 +8410,19 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5996,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6014,19 +8454,19 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M42" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6040,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -6058,19 +8498,19 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M43" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6084,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6102,19 +8542,19 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L44" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6122,43 +8562,43 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G45" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I45" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M45" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6166,37 +8606,37 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" t="s">
         <v>182</v>
       </c>
-      <c r="G46" t="s">
-        <v>184</v>
-      </c>
-      <c r="H46" t="s">
-        <v>185</v>
-      </c>
-      <c r="I46" t="s">
-        <v>189</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M46" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
@@ -6208,37 +8648,46 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6246,25 +8695,25 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6272,25 +8721,25 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6298,25 +8747,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6324,25 +8773,25 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6350,25 +8799,25 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6376,25 +8825,25 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6402,25 +8851,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6428,25 +8877,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6454,25 +8903,25 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6480,25 +8929,25 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6509,22 +8958,22 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6535,22 +8984,22 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6558,25 +9007,25 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6584,25 +9033,25 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6610,25 +9059,25 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6636,25 +9085,25 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6662,25 +9111,25 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D18" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6688,25 +9137,25 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D19" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6714,25 +9163,25 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6740,22 +9189,22 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
